--- a/PulseGenerator/Measurements/PulseGen w RG-58CU coax.xlsx
+++ b/PulseGenerator/Measurements/PulseGen w RG-58CU coax.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="22995" windowHeight="10545"/>
+    <workbookView xWindow="480" yWindow="135" windowWidth="22995" windowHeight="10485"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
